--- a/data/statistical/filled_NaN_xlsx/山东省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/山东省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>36.4</v>
       </c>
       <c r="E2">
-        <v>2387.033928602934</v>
+        <v>2387.033928394318</v>
       </c>
       <c r="F2">
         <v>5596.32</v>
@@ -609,85 +609,85 @@
         <v>4.55</v>
       </c>
       <c r="H2">
-        <v>45.9086661512556</v>
+        <v>45.90866615105188</v>
       </c>
       <c r="I2">
-        <v>3.30197200110134</v>
+        <v>3.318199015751876</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-73.17199281230569</v>
       </c>
       <c r="K2">
-        <v>20.05898993089795</v>
+        <v>20.05898993060691</v>
       </c>
       <c r="L2">
-        <v>1.189369526817472</v>
+        <v>1.189369526812243</v>
       </c>
       <c r="M2">
-        <v>155.6091441707686</v>
+        <v>155.6091441507451</v>
       </c>
       <c r="N2">
-        <v>139.3806372553736</v>
+        <v>139.3806372555846</v>
       </c>
       <c r="O2">
-        <v>32.08703429019079</v>
+        <v>32.08703430695459</v>
       </c>
       <c r="P2">
-        <v>2140.716856464744</v>
+        <v>2140.71685628593</v>
       </c>
       <c r="Q2">
-        <v>78.6911274525919</v>
+        <v>78.6911274533486</v>
       </c>
       <c r="R2">
-        <v>18.44732197804842</v>
+        <v>18.44732197467238</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-33966.27205657959</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-115.8352672606707</v>
       </c>
       <c r="U2">
-        <v>1.277852200128968</v>
+        <v>1.158200082309828</v>
       </c>
       <c r="V2">
-        <v>41.85173375182785</v>
+        <v>41.8517337536905</v>
       </c>
       <c r="W2">
-        <v>73.04490109838662</v>
+        <v>73.04490109739709</v>
       </c>
       <c r="X2">
-        <v>12754.95098209381</v>
+        <v>12754.95097398758</v>
       </c>
       <c r="Y2">
-        <v>83.77216472904554</v>
+        <v>82.81999914218126</v>
       </c>
       <c r="Z2">
-        <v>125449.2261590958</v>
+        <v>125449.2261457443</v>
       </c>
       <c r="AA2">
-        <v>1489.930070355535</v>
+        <v>1315.11538477242</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2414187.435058594</v>
       </c>
       <c r="AC2">
-        <v>738159.3699417114</v>
+        <v>3152009.439056396</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>47414.44405698776</v>
       </c>
       <c r="AE2">
-        <v>54304.06486073374</v>
+        <v>-129506.8106808662</v>
       </c>
       <c r="AF2">
-        <v>49087.4513386786</v>
+        <v>1392.134883107689</v>
       </c>
       <c r="AG2">
-        <v>69943.61028051731</v>
+        <v>-18612.83863687515</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>419347.0239009857</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>4.78</v>
       </c>
       <c r="H3">
-        <v>46.45103328218102</v>
+        <v>46.45103328199184</v>
       </c>
       <c r="I3">
         <v>3.6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-57.79984234645963</v>
       </c>
       <c r="K3">
         <v>19.1254455359471</v>
@@ -743,13 +743,13 @@
         <v>89.64</v>
       </c>
       <c r="R3">
-        <v>15.54058823327068</v>
+        <v>15.54058822954539</v>
       </c>
       <c r="S3">
         <v>108271</v>
       </c>
       <c r="T3">
-        <v>158.7499988228083</v>
+        <v>158.7499987185001</v>
       </c>
       <c r="U3">
         <v>1.26</v>
@@ -764,34 +764,34 @@
         <v>36304</v>
       </c>
       <c r="Y3">
-        <v>84.92590987252332</v>
+        <v>84.61352308168406</v>
       </c>
       <c r="Z3">
-        <v>143395.7083587646</v>
+        <v>143395.7083435059</v>
       </c>
       <c r="AA3">
-        <v>1321.839161191136</v>
+        <v>1125.856643460691</v>
       </c>
       <c r="AB3">
-        <v>41415.41465187073</v>
+        <v>2055130.926544189</v>
       </c>
       <c r="AC3">
-        <v>757935.7614898682</v>
+        <v>2671992.173843384</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>39576.61188769341</v>
       </c>
       <c r="AE3">
-        <v>18278.53067197101</v>
+        <v>-108550.1152229309</v>
       </c>
       <c r="AF3">
-        <v>45496.85441428423</v>
+        <v>2446.062852732779</v>
       </c>
       <c r="AG3">
-        <v>151109.2564484</v>
+        <v>-15798.60891634226</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>366166.0840206146</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>6.01</v>
       </c>
       <c r="H4">
-        <v>47.04022058853297</v>
+        <v>47.04022058840201</v>
       </c>
       <c r="I4">
         <v>3.4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-32.46180094406009</v>
       </c>
       <c r="K4">
         <v>16.3761563164033</v>
@@ -847,7 +847,7 @@
         <v>85.97</v>
       </c>
       <c r="R4">
-        <v>13.09205882274546</v>
+        <v>13.09205881843809</v>
       </c>
       <c r="S4">
         <v>131970.5</v>
@@ -868,34 +868,34 @@
         <v>35777</v>
       </c>
       <c r="Y4">
-        <v>83.83146753552936</v>
+        <v>82.69277737253596</v>
       </c>
       <c r="Z4">
         <v>262711</v>
       </c>
       <c r="AA4">
-        <v>1169.718282014132</v>
+        <v>953.7147852778435</v>
       </c>
       <c r="AB4">
-        <v>177635.496720314</v>
+        <v>1735760.775360107</v>
       </c>
       <c r="AC4">
-        <v>788516.9053878784</v>
+        <v>2243404.682357788</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>32486.9285697937</v>
       </c>
       <c r="AE4">
-        <v>50494.24711036669</v>
+        <v>-89135.54479074478</v>
       </c>
       <c r="AF4">
-        <v>42021.20527550578</v>
+        <v>163.8978260760896</v>
       </c>
       <c r="AG4">
-        <v>157272.0211712259</v>
+        <v>-13123.08963537216</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>317430.2631244659</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>2.842131439596415</v>
+        <v>2.84213138744235</v>
       </c>
       <c r="K5">
         <v>14.3744688125957</v>
@@ -957,7 +957,7 @@
         <v>187610.2</v>
       </c>
       <c r="T5">
-        <v>604.6920430511236</v>
+        <v>604.6920429766178</v>
       </c>
       <c r="U5">
         <v>1.29</v>
@@ -972,34 +972,34 @@
         <v>51142</v>
       </c>
       <c r="Y5">
-        <v>84.39335761936317</v>
+        <v>82.68157675521275</v>
       </c>
       <c r="Z5">
         <v>141141</v>
       </c>
       <c r="AA5">
-        <v>1033.567432802171</v>
+        <v>798.6898102164268</v>
       </c>
       <c r="AB5">
-        <v>316427.0790929794</v>
+        <v>1456076.981552124</v>
       </c>
       <c r="AC5">
-        <v>829902.8016433716</v>
+        <v>1866246.964614868</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>26145.39410328865</v>
       </c>
       <c r="AE5">
-        <v>22058.05767558169</v>
+        <v>-71263.09938430786</v>
       </c>
       <c r="AF5">
-        <v>38660.50392243266</v>
+        <v>8493.780278547194</v>
       </c>
       <c r="AG5">
-        <v>71872.30581702618</v>
+        <v>-10586.28079402447</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>273139.5612068176</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>46272</v>
       </c>
       <c r="Y6">
-        <v>84.5024308860262</v>
+        <v>84.51299218119577</v>
       </c>
       <c r="Z6">
         <v>134423</v>
       </c>
       <c r="AA6">
-        <v>913.386613573879</v>
+        <v>660.7817182764411</v>
       </c>
       <c r="AB6">
-        <v>457790.1617698669</v>
+        <v>1216079.545074463</v>
       </c>
       <c r="AC6">
-        <v>882093.4502487183</v>
+        <v>1540519.020614624</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>20552.00848817825</v>
       </c>
       <c r="AE6">
-        <v>30365.48974424443</v>
+        <v>-54932.77900218964</v>
       </c>
       <c r="AF6">
-        <v>35414.75035494566</v>
+        <v>7622.879811847316</v>
       </c>
       <c r="AG6">
-        <v>81589.2679965264</v>
+        <v>-8188.182392299175</v>
       </c>
       <c r="AH6">
-        <v>50554.66251850128</v>
+        <v>233293.9782752991</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>144746</v>
       </c>
       <c r="AA7">
-        <v>809.1758243106306</v>
+        <v>539.9905094578862</v>
       </c>
       <c r="AB7">
-        <v>601724.7447490692</v>
+        <v>1015768.4659729</v>
       </c>
       <c r="AC7">
-        <v>945088.8512077332</v>
+        <v>1266220.850357056</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>15706.77172422409</v>
       </c>
       <c r="AE7">
-        <v>44536.398746337</v>
+        <v>-40144.58364534378</v>
       </c>
       <c r="AF7">
-        <v>32283.94457310438</v>
+        <v>3603.481538782248</v>
       </c>
       <c r="AG7">
-        <v>143906.5051224935</v>
+        <v>-5928.794430077076</v>
       </c>
       <c r="AH7">
-        <v>100669.5120563507</v>
+        <v>197893.5143241882</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>185575</v>
       </c>
       <c r="AA8">
-        <v>720.9350650347769</v>
+        <v>436.3161837682128</v>
       </c>
       <c r="AB8">
-        <v>748230.8280315399</v>
+        <v>855143.7442016602</v>
       </c>
       <c r="AC8">
-        <v>1018889.004516602</v>
+        <v>1043352.453842163</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>11609.68381166458</v>
       </c>
       <c r="AE8">
-        <v>18513.51045007794</v>
+        <v>-26898.51331377029</v>
       </c>
       <c r="AF8">
-        <v>29268.08657687902</v>
+        <v>8083.945089880311</v>
       </c>
       <c r="AG8">
-        <v>57791.34967172912</v>
+        <v>-3808.116907536983</v>
       </c>
       <c r="AH8">
-        <v>147242.3893680573</v>
+        <v>166938.1693572998</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1373,7 +1373,7 @@
         <v>664118.7</v>
       </c>
       <c r="T9">
-        <v>1083.662180677056</v>
+        <v>1083.662180662155</v>
       </c>
       <c r="U9">
         <v>1.36</v>
@@ -1394,28 +1394,28 @@
         <v>182171</v>
       </c>
       <c r="AA9">
-        <v>648.6643357239664</v>
+        <v>349.7587411776185</v>
       </c>
       <c r="AB9">
-        <v>897308.4116191864</v>
+        <v>734205.3798065186</v>
       </c>
       <c r="AC9">
-        <v>1103493.910179138</v>
+        <v>871913.8310546875</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>8260.744750499725</v>
       </c>
       <c r="AE9">
-        <v>25187.12455501983</v>
+        <v>-15194.56800746918</v>
       </c>
       <c r="AF9">
-        <v>26367.17636632919</v>
+        <v>-167.9983523774008</v>
       </c>
       <c r="AG9">
-        <v>84917.42849404732</v>
+        <v>-1826.149824500084</v>
       </c>
       <c r="AH9">
-        <v>190273.2944526672</v>
+        <v>140427.9433746338</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>205131</v>
       </c>
       <c r="AA10">
-        <v>592.3636363968253</v>
+        <v>280.3181817308068</v>
       </c>
       <c r="AB10">
-        <v>1048957.495508194</v>
+        <v>652953.3727416992</v>
       </c>
       <c r="AC10">
-        <v>1198903.568195343</v>
+        <v>751904.9820098877</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>5659.954540491104</v>
       </c>
       <c r="AE10">
-        <v>22509.48418371237</v>
+        <v>-5032.74772644043</v>
       </c>
       <c r="AF10">
-        <v>23581.21394136548</v>
+        <v>4821.000274507192</v>
       </c>
       <c r="AG10">
-        <v>45290.26206441094</v>
+        <v>17.10681885480881</v>
       </c>
       <c r="AH10">
-        <v>229762.2273111343</v>
+        <v>118362.8363704681</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>219028</v>
       </c>
       <c r="AA11">
-        <v>362</v>
+        <v>140</v>
       </c>
       <c r="AB11">
-        <v>989971</v>
+        <v>475139</v>
       </c>
       <c r="AC11">
-        <v>1095588</v>
+        <v>551062</v>
       </c>
       <c r="AD11">
-        <v>2375</v>
+        <v>1988</v>
       </c>
       <c r="AE11">
-        <v>21246</v>
+        <v>1664</v>
       </c>
       <c r="AF11">
-        <v>19098</v>
+        <v>1810</v>
       </c>
       <c r="AG11">
-        <v>18898</v>
+        <v>1885</v>
       </c>
       <c r="AH11">
-        <v>182130</v>
+        <v>66962</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>197956</v>
       </c>
       <c r="AA12">
-        <v>622</v>
+        <v>256</v>
       </c>
       <c r="AB12">
-        <v>1345637</v>
+        <v>618955</v>
       </c>
       <c r="AC12">
-        <v>1427346</v>
+        <v>680074</v>
       </c>
       <c r="AD12">
-        <v>3912</v>
+        <v>2388</v>
       </c>
       <c r="AE12">
-        <v>36599</v>
+        <v>2524</v>
       </c>
       <c r="AF12">
-        <v>19772</v>
+        <v>6326</v>
       </c>
       <c r="AG12">
-        <v>50412</v>
+        <v>3627</v>
       </c>
       <c r="AH12">
-        <v>299388</v>
+        <v>73349</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>220473</v>
       </c>
       <c r="AA13">
-        <v>584</v>
+        <v>192</v>
       </c>
       <c r="AB13">
-        <v>1562172</v>
+        <v>732174</v>
       </c>
       <c r="AC13">
-        <v>1636704</v>
+        <v>796119</v>
       </c>
       <c r="AD13">
-        <v>4667</v>
+        <v>2888</v>
       </c>
       <c r="AE13">
-        <v>42671</v>
+        <v>20777</v>
       </c>
       <c r="AF13">
-        <v>15545</v>
+        <v>6749</v>
       </c>
       <c r="AG13">
-        <v>62493</v>
+        <v>7571</v>
       </c>
       <c r="AH13">
-        <v>394211</v>
+        <v>72406</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>224972</v>
       </c>
       <c r="AA14">
-        <v>582</v>
+        <v>204</v>
       </c>
       <c r="AB14">
-        <v>1760079</v>
+        <v>816041</v>
       </c>
       <c r="AC14">
-        <v>1722243</v>
+        <v>864512</v>
       </c>
       <c r="AD14">
-        <v>6883</v>
+        <v>3984</v>
       </c>
       <c r="AE14">
-        <v>33668</v>
+        <v>23058</v>
       </c>
       <c r="AF14">
-        <v>19537</v>
+        <v>18115</v>
       </c>
       <c r="AG14">
-        <v>53790</v>
+        <v>2995</v>
       </c>
       <c r="AH14">
-        <v>373483</v>
+        <v>133199</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>221207</v>
       </c>
       <c r="AA15">
-        <v>613</v>
+        <v>242</v>
       </c>
       <c r="AB15">
-        <v>2076753</v>
+        <v>941196</v>
       </c>
       <c r="AC15">
-        <v>1951473</v>
+        <v>971175</v>
       </c>
       <c r="AD15">
-        <v>9569</v>
+        <v>5992</v>
       </c>
       <c r="AE15">
-        <v>47192</v>
+        <v>35205</v>
       </c>
       <c r="AF15">
-        <v>7754</v>
+        <v>1905</v>
       </c>
       <c r="AG15">
-        <v>37258</v>
+        <v>6216</v>
       </c>
       <c r="AH15">
-        <v>438577</v>
+        <v>168568</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>146684</v>
       </c>
       <c r="AA16">
-        <v>675</v>
+        <v>235</v>
       </c>
       <c r="AB16">
-        <v>2224899</v>
+        <v>1030278</v>
       </c>
       <c r="AC16">
-        <v>2220983</v>
+        <v>1210998</v>
       </c>
       <c r="AD16">
-        <v>12298</v>
+        <v>8487</v>
       </c>
       <c r="AE16">
-        <v>14782</v>
+        <v>24163</v>
       </c>
       <c r="AF16">
-        <v>5643</v>
+        <v>3111</v>
       </c>
       <c r="AG16">
-        <v>46406</v>
+        <v>5718</v>
       </c>
       <c r="AH16">
-        <v>440998</v>
+        <v>59409</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>1253.6747</v>
       </c>
       <c r="K17">
-        <v>9.067118595528882</v>
+        <v>9.067118595878128</v>
       </c>
       <c r="L17">
-        <v>0.7859934697773951</v>
+        <v>0.7859934697828521</v>
       </c>
       <c r="M17">
         <v>5.73184934577832</v>
@@ -2226,28 +2226,28 @@
         <v>142195</v>
       </c>
       <c r="AA17">
-        <v>776</v>
+        <v>237</v>
       </c>
       <c r="AB17">
-        <v>2506225.5</v>
+        <v>1136647.5</v>
       </c>
       <c r="AC17">
-        <v>2626372.5</v>
+        <v>1280428.1</v>
       </c>
       <c r="AD17">
-        <v>17553</v>
+        <v>7787</v>
       </c>
       <c r="AE17">
-        <v>11252</v>
+        <v>23518</v>
       </c>
       <c r="AF17">
-        <v>5033</v>
+        <v>3639</v>
       </c>
       <c r="AG17">
-        <v>151030</v>
+        <v>12267</v>
       </c>
       <c r="AH17">
-        <v>409409</v>
+        <v>52683</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>1426.1</v>
       </c>
       <c r="K18">
-        <v>9.660864242177922</v>
+        <v>9.660864242585376</v>
       </c>
       <c r="L18">
-        <v>0.7650470741273239</v>
+        <v>0.765047074133463</v>
       </c>
       <c r="M18">
         <v>4.46260589329076</v>
@@ -2312,13 +2312,13 @@
         <v>242</v>
       </c>
       <c r="U18">
-        <v>1.278892330424635</v>
+        <v>1.222926481960316</v>
       </c>
       <c r="V18">
         <v>97.40000000000001</v>
       </c>
       <c r="W18">
-        <v>107.5729010985524</v>
+        <v>107.5729010979849</v>
       </c>
       <c r="X18">
         <v>35864</v>
@@ -2330,28 +2330,28 @@
         <v>147481</v>
       </c>
       <c r="AA18">
-        <v>591</v>
+        <v>294</v>
       </c>
       <c r="AB18">
-        <v>2265528.3</v>
+        <v>1454446.8</v>
       </c>
       <c r="AC18">
-        <v>2182509.2</v>
+        <v>1598880.5</v>
       </c>
       <c r="AD18">
-        <v>19986</v>
+        <v>10060</v>
       </c>
       <c r="AE18">
-        <v>14746.2</v>
+        <v>19944.3</v>
       </c>
       <c r="AF18">
-        <v>13334.9</v>
+        <v>1126.4</v>
       </c>
       <c r="AG18">
-        <v>338913.8</v>
+        <v>6020.7</v>
       </c>
       <c r="AH18">
-        <v>406693</v>
+        <v>78601</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>53</v>
       </c>
       <c r="E19">
-        <v>27180.85892866552</v>
+        <v>27180.85892891884</v>
       </c>
       <c r="F19">
         <v>26731.489</v>
@@ -2386,10 +2386,10 @@
         <v>1457.1</v>
       </c>
       <c r="K19">
-        <v>10.42042702250183</v>
+        <v>10.42042702290928</v>
       </c>
       <c r="L19">
-        <v>0.7448438461631213</v>
+        <v>0.7448438461699425</v>
       </c>
       <c r="M19">
         <v>3.96117608139751</v>
@@ -2413,16 +2413,16 @@
         <v>2579231</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>-127.5771885067225</v>
       </c>
       <c r="U19">
-        <v>1.267604237196815</v>
+        <v>1.261348664285933</v>
       </c>
       <c r="V19">
         <v>98</v>
       </c>
       <c r="W19">
-        <v>110.2679890104773</v>
+        <v>110.267989009677</v>
       </c>
       <c r="X19">
         <v>37324</v>
@@ -2434,28 +2434,28 @@
         <v>168297</v>
       </c>
       <c r="AA19">
-        <v>592</v>
+        <v>406</v>
       </c>
       <c r="AB19">
-        <v>1959128.6</v>
+        <v>1529398.2</v>
       </c>
       <c r="AC19">
-        <v>2025148.5</v>
+        <v>1839880</v>
       </c>
       <c r="AD19">
-        <v>18387</v>
+        <v>13660</v>
       </c>
       <c r="AE19">
-        <v>20273.4</v>
+        <v>2961.3</v>
       </c>
       <c r="AF19">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="AG19">
-        <v>74450.10000000001</v>
+        <v>9497.5</v>
       </c>
       <c r="AH19">
-        <v>283320.2</v>
+        <v>102666.9</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>53.5</v>
       </c>
       <c r="E20">
-        <v>28998.13119760156</v>
+        <v>28998.13119788468</v>
       </c>
       <c r="F20">
         <v>27291.1032</v>
@@ -2490,10 +2490,10 @@
         <v>1827.6249</v>
       </c>
       <c r="K20">
-        <v>11.34580693644239</v>
+        <v>11.34580693696626</v>
       </c>
       <c r="L20">
-        <v>0.7253837858847874</v>
+        <v>0.7253837858918359</v>
       </c>
       <c r="M20">
         <v>2.64289132902132</v>
@@ -2517,16 +2517,16 @@
         <v>2895830</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-437.9533528983593</v>
       </c>
       <c r="U20">
-        <v>1.231279984406497</v>
+        <v>1.253216071631072</v>
       </c>
       <c r="V20">
         <v>98.3</v>
       </c>
       <c r="W20">
-        <v>113.0262637355772</v>
+        <v>113.0262637344858</v>
       </c>
       <c r="X20">
         <v>39650</v>
@@ -2538,28 +2538,28 @@
         <v>141753</v>
       </c>
       <c r="AA20">
-        <v>737</v>
+        <v>485</v>
       </c>
       <c r="AB20">
-        <v>2307305</v>
+        <v>1912976</v>
       </c>
       <c r="AC20">
-        <v>2245843</v>
+        <v>2319967</v>
       </c>
       <c r="AD20">
-        <v>17307</v>
+        <v>18752</v>
       </c>
       <c r="AE20">
-        <v>18090</v>
+        <v>6987</v>
       </c>
       <c r="AF20">
-        <v>1110</v>
+        <v>1013</v>
       </c>
       <c r="AG20">
-        <v>49271</v>
+        <v>17095</v>
       </c>
       <c r="AH20">
-        <v>343223</v>
+        <v>105098</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>52.8061</v>
       </c>
       <c r="E21">
-        <v>30855.27146376669</v>
+        <v>30855.27146406472</v>
       </c>
       <c r="F21">
         <v>29314.3</v>
@@ -2594,25 +2594,25 @@
         <v>1810.0455</v>
       </c>
       <c r="K21">
-        <v>12.43700398405781</v>
+        <v>12.43700398458168</v>
       </c>
       <c r="L21">
-        <v>0.7066668932914126</v>
+        <v>0.7066668932995981</v>
       </c>
       <c r="M21">
         <v>1.98974919340184</v>
       </c>
       <c r="N21">
-        <v>123.9414215690558</v>
+        <v>123.9414215691213</v>
       </c>
       <c r="O21">
-        <v>112.9676225637086</v>
+        <v>112.9676225446165</v>
       </c>
       <c r="P21">
         <v>3362.2</v>
       </c>
       <c r="Q21">
-        <v>97.78269607888069</v>
+        <v>97.78269607899711</v>
       </c>
       <c r="R21">
         <v>41.6</v>
@@ -2621,49 +2621,49 @@
         <v>3054099</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-782.739013209939</v>
       </c>
       <c r="U21">
-        <v>1.283251299986692</v>
+        <v>1.378317308233386</v>
       </c>
       <c r="V21">
         <v>98.40000000000001</v>
       </c>
       <c r="W21">
-        <v>115.8477252738521</v>
+        <v>115.8477252724115</v>
       </c>
       <c r="X21">
-        <v>16379.06863498688</v>
+        <v>16379.06864452362</v>
       </c>
       <c r="Y21">
-        <v>84.55565478968688</v>
+        <v>83.95153860584674</v>
       </c>
       <c r="Z21">
         <v>11820</v>
       </c>
       <c r="AA21">
-        <v>1031</v>
+        <v>662</v>
       </c>
       <c r="AB21">
-        <v>2718772</v>
+        <v>2363708</v>
       </c>
       <c r="AC21">
-        <v>2981907</v>
+        <v>2819363</v>
       </c>
       <c r="AD21">
-        <v>22209</v>
+        <v>24491</v>
       </c>
       <c r="AE21">
-        <v>113156</v>
+        <v>3813</v>
       </c>
       <c r="AF21">
-        <v>1463</v>
+        <v>5547</v>
       </c>
       <c r="AG21">
-        <v>65501</v>
+        <v>14427</v>
       </c>
       <c r="AH21">
-        <v>453304</v>
+        <v>131127</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>52.8</v>
       </c>
       <c r="E22">
-        <v>32752.27972711623</v>
+        <v>32752.27972742915</v>
       </c>
       <c r="F22">
         <v>28555.1522</v>
@@ -2692,82 +2692,82 @@
         <v>64.54000000000001</v>
       </c>
       <c r="I22">
-        <v>3.474184756929604</v>
+        <v>3.160638294055608</v>
       </c>
       <c r="J22">
-        <v>2127.790293611586</v>
+        <v>2127.790293652564</v>
       </c>
       <c r="K22">
-        <v>13.69401816523168</v>
+        <v>13.69401816593017</v>
       </c>
       <c r="L22">
-        <v>0.6886931683845887</v>
+        <v>0.6886931683932289</v>
       </c>
       <c r="M22">
-        <v>10.02180700935423</v>
+        <v>10.02180703124031</v>
       </c>
       <c r="N22">
-        <v>123.0358230139864</v>
+        <v>123.0358230140882</v>
       </c>
       <c r="O22">
-        <v>131.9848800464533</v>
+        <v>131.9848800254986</v>
       </c>
       <c r="P22">
-        <v>2080.257259845734</v>
+        <v>2080.257259935141</v>
       </c>
       <c r="Q22">
-        <v>97.35162796778604</v>
+        <v>97.35162796784425</v>
       </c>
       <c r="R22">
-        <v>47.37147057976108</v>
+        <v>47.37147059012204</v>
       </c>
       <c r="S22">
         <v>2807313</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-1161.934169411659</v>
       </c>
       <c r="U22">
-        <v>1.322917781850686</v>
+        <v>1.201662200193193</v>
       </c>
       <c r="V22">
-        <v>91.29033023584634</v>
+        <v>91.29033023305237</v>
       </c>
       <c r="W22">
-        <v>118.7323736252874</v>
+        <v>118.7323736235121</v>
       </c>
       <c r="X22">
-        <v>2783.604239940643</v>
+        <v>2783.604251861572</v>
       </c>
       <c r="Y22">
-        <v>84.05180148391469</v>
+        <v>84.24812028034943</v>
       </c>
       <c r="Z22">
-        <v>59011.00239753723</v>
+        <v>59011.0024433136</v>
       </c>
       <c r="AA22">
-        <v>1365</v>
+        <v>825</v>
       </c>
       <c r="AB22">
-        <v>3635674.2</v>
+        <v>2932658.5</v>
       </c>
       <c r="AC22">
-        <v>3645608.8</v>
+        <v>3450148.6</v>
       </c>
       <c r="AD22">
-        <v>27157</v>
+        <v>36907</v>
       </c>
       <c r="AE22">
-        <v>47409</v>
+        <v>6280.9</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2160.2</v>
       </c>
       <c r="AG22">
-        <v>123721.4</v>
+        <v>6169.5</v>
       </c>
       <c r="AH22">
-        <v>523269.4</v>
+        <v>273230.1</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2778,13 +2778,13 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>88904.53270573914</v>
+        <v>88904.53270711005</v>
       </c>
       <c r="D23">
         <v>53.8</v>
       </c>
       <c r="E23">
-        <v>34689.15598765016</v>
+        <v>34689.15598803759</v>
       </c>
       <c r="F23">
         <v>32047.21636478603</v>
@@ -2793,85 +2793,85 @@
         <v>-2.18</v>
       </c>
       <c r="H23">
-        <v>67.13061274573556</v>
+        <v>67.13061274579377</v>
       </c>
       <c r="I23">
-        <v>3.441140564895917</v>
+        <v>3.147286802638086</v>
       </c>
       <c r="J23">
-        <v>2342.48026272282</v>
+        <v>2342.480262767524</v>
       </c>
       <c r="K23">
-        <v>15.11684948008042</v>
+        <v>15.11684948077891</v>
       </c>
       <c r="L23">
-        <v>0.6714626111631787</v>
+        <v>0.6714626111725011</v>
       </c>
       <c r="M23">
-        <v>13.86708396673203</v>
+        <v>13.86708399141207</v>
       </c>
       <c r="N23">
-        <v>122.1209236333343</v>
+        <v>122.1209236334762</v>
       </c>
       <c r="O23">
-        <v>152.4781759702601</v>
+        <v>152.478175946977</v>
       </c>
       <c r="P23">
-        <v>1509.313005387783</v>
+        <v>1509.313005447388</v>
       </c>
       <c r="Q23">
-        <v>96.77697110536974</v>
+        <v>96.77697110554436</v>
       </c>
       <c r="R23">
-        <v>53.62882351875305</v>
+        <v>53.62882353120949</v>
       </c>
       <c r="S23">
-        <v>3421282.654342651</v>
+        <v>3421282.65448761</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-1575.538821488619</v>
       </c>
       <c r="U23">
-        <v>1.325097000805643</v>
+        <v>1.225949286299339</v>
       </c>
       <c r="V23">
-        <v>87.93941176356748</v>
+        <v>87.93941176054068</v>
       </c>
       <c r="W23">
-        <v>121.6802087898832</v>
+        <v>121.6802087877149</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-12190.480884552</v>
       </c>
       <c r="Y23">
-        <v>84.18045118241945</v>
+        <v>85.33292427545312</v>
       </c>
       <c r="Z23">
-        <v>32181.91957092285</v>
+        <v>32181.91962528229</v>
       </c>
       <c r="AA23">
-        <v>1313.727272864431</v>
+        <v>935.2272729724646</v>
       </c>
       <c r="AB23">
-        <v>3254402.113695145</v>
+        <v>3208135.80027771</v>
       </c>
       <c r="AC23">
-        <v>3422461.58649826</v>
+        <v>3871899.354766846</v>
       </c>
       <c r="AD23">
-        <v>27367.15909063816</v>
+        <v>39931.22728323936</v>
       </c>
       <c r="AE23">
-        <v>23272.07631494677</v>
+        <v>-13262.46137189865</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>9223.186994470674</v>
       </c>
       <c r="AG23">
-        <v>37865.65055646059</v>
+        <v>11356.79318016768</v>
       </c>
       <c r="AH23">
-        <v>420798.8818054199</v>
+        <v>236022.2727661133</v>
       </c>
     </row>
   </sheetData>
